--- a/data/pca/factorExposure/factorExposure_2012-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-02.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01672979832045399</v>
+        <v>0.0220949324398592</v>
       </c>
       <c r="C2">
-        <v>0.02963622423475468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02444856545688871</v>
+      </c>
+      <c r="D2">
+        <v>0.004960558938358803</v>
+      </c>
+      <c r="E2">
+        <v>0.01955221650879855</v>
+      </c>
+      <c r="F2">
+        <v>0.003770180409484393</v>
+      </c>
+      <c r="G2">
+        <v>0.01406844967300946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06733992966283117</v>
+        <v>0.07550385823536236</v>
       </c>
       <c r="C4">
-        <v>0.06195230804233443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04203602973027137</v>
+      </c>
+      <c r="D4">
+        <v>0.07060363921089313</v>
+      </c>
+      <c r="E4">
+        <v>-0.0009991436701495768</v>
+      </c>
+      <c r="F4">
+        <v>0.02810488899597139</v>
+      </c>
+      <c r="G4">
+        <v>-0.02000342055519323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09560318307691426</v>
+        <v>0.1124132270676268</v>
       </c>
       <c r="C6">
-        <v>0.07102788171249191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04779537098707824</v>
+      </c>
+      <c r="D6">
+        <v>0.00993300420892081</v>
+      </c>
+      <c r="E6">
+        <v>0.002412518237231186</v>
+      </c>
+      <c r="F6">
+        <v>0.0417897831406767</v>
+      </c>
+      <c r="G6">
+        <v>0.0115749390316393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04368781045118798</v>
+        <v>0.05337253169593639</v>
       </c>
       <c r="C7">
-        <v>0.03570647236563176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02673770552011907</v>
+      </c>
+      <c r="D7">
+        <v>0.03448103621598753</v>
+      </c>
+      <c r="E7">
+        <v>0.02145081252320623</v>
+      </c>
+      <c r="F7">
+        <v>0.03162996086266842</v>
+      </c>
+      <c r="G7">
+        <v>-0.03580074761702432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03159079153878719</v>
+        <v>0.03418392232177331</v>
       </c>
       <c r="C8">
-        <v>0.02870227312944955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01833854849742289</v>
+      </c>
+      <c r="D8">
+        <v>0.03979920033697603</v>
+      </c>
+      <c r="E8">
+        <v>0.005299526094633109</v>
+      </c>
+      <c r="F8">
+        <v>0.04926030385764989</v>
+      </c>
+      <c r="G8">
+        <v>0.02299083167453933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06155873260202319</v>
+        <v>0.07073767476704731</v>
       </c>
       <c r="C9">
-        <v>0.04813403925068715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03108144068491025</v>
+      </c>
+      <c r="D9">
+        <v>0.0693477545225326</v>
+      </c>
+      <c r="E9">
+        <v>0.01362724832847642</v>
+      </c>
+      <c r="F9">
+        <v>0.03887395268780985</v>
+      </c>
+      <c r="G9">
+        <v>-0.007195287464975757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02807503078338947</v>
+        <v>0.04003789033500353</v>
       </c>
       <c r="C10">
-        <v>0.0382775609371907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03867164302558446</v>
+      </c>
+      <c r="D10">
+        <v>-0.1866517320535882</v>
+      </c>
+      <c r="E10">
+        <v>0.04979161097814749</v>
+      </c>
+      <c r="F10">
+        <v>0.03511953175465574</v>
+      </c>
+      <c r="G10">
+        <v>-0.03410810835110027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0681897107323035</v>
+        <v>0.07546936175745847</v>
       </c>
       <c r="C11">
-        <v>0.05485240914145561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03238686426228225</v>
+      </c>
+      <c r="D11">
+        <v>0.06786697975299381</v>
+      </c>
+      <c r="E11">
+        <v>-0.008540170911198672</v>
+      </c>
+      <c r="F11">
+        <v>0.03506779711786424</v>
+      </c>
+      <c r="G11">
+        <v>-0.03278042239687378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05163018829459874</v>
+        <v>0.0602729219557877</v>
       </c>
       <c r="C12">
-        <v>0.05337833992282173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.0367245169444452</v>
+      </c>
+      <c r="D12">
+        <v>0.05099308179377936</v>
+      </c>
+      <c r="E12">
+        <v>0.00947965600730611</v>
+      </c>
+      <c r="F12">
+        <v>0.02602681880522481</v>
+      </c>
+      <c r="G12">
+        <v>-0.03010885606173578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0597047785331754</v>
+        <v>0.06556550994403461</v>
       </c>
       <c r="C13">
-        <v>0.05370012464824059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03278851342137212</v>
+      </c>
+      <c r="D13">
+        <v>0.05256562222829136</v>
+      </c>
+      <c r="E13">
+        <v>0.004992806593870362</v>
+      </c>
+      <c r="F13">
+        <v>0.01915415669761646</v>
+      </c>
+      <c r="G13">
+        <v>-0.01784992825252684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03189769471542049</v>
+        <v>0.0373380383716963</v>
       </c>
       <c r="C14">
-        <v>0.02845443390866642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02155176665410052</v>
+      </c>
+      <c r="D14">
+        <v>0.01068857934805431</v>
+      </c>
+      <c r="E14">
+        <v>0.01127965921442227</v>
+      </c>
+      <c r="F14">
+        <v>0.01639259876938919</v>
+      </c>
+      <c r="G14">
+        <v>0.009110621224810865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03878412265690216</v>
+        <v>0.0401696068767328</v>
       </c>
       <c r="C15">
-        <v>0.01370656052801823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.004008141902066761</v>
+      </c>
+      <c r="D15">
+        <v>0.01815301523614413</v>
+      </c>
+      <c r="E15">
+        <v>0.03736795176220114</v>
+      </c>
+      <c r="F15">
+        <v>0.002105309132278791</v>
+      </c>
+      <c r="G15">
+        <v>0.02003059125538961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05660922982509783</v>
+        <v>0.06167674660485045</v>
       </c>
       <c r="C16">
-        <v>0.04576147989985882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02838116602446795</v>
+      </c>
+      <c r="D16">
+        <v>0.06033884535080964</v>
+      </c>
+      <c r="E16">
+        <v>-0.000856112799108134</v>
+      </c>
+      <c r="F16">
+        <v>0.03039552337048317</v>
+      </c>
+      <c r="G16">
+        <v>-0.01910165402343328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06206568713982298</v>
+        <v>0.06181132892195747</v>
       </c>
       <c r="C20">
-        <v>0.03903205690859186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01891341627679516</v>
+      </c>
+      <c r="D20">
+        <v>0.04862000712556474</v>
+      </c>
+      <c r="E20">
+        <v>0.01724957033220783</v>
+      </c>
+      <c r="F20">
+        <v>0.02693597139494019</v>
+      </c>
+      <c r="G20">
+        <v>-0.02578393458845402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02750811280197869</v>
+        <v>0.02257928567077722</v>
       </c>
       <c r="C21">
-        <v>-0.0004193643481319169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01066741084310339</v>
+      </c>
+      <c r="D21">
+        <v>0.03106543267454411</v>
+      </c>
+      <c r="E21">
+        <v>0.09522039537981181</v>
+      </c>
+      <c r="F21">
+        <v>-0.003413812200008254</v>
+      </c>
+      <c r="G21">
+        <v>0.01881359870190251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06867326590309326</v>
+        <v>0.06588124624672413</v>
       </c>
       <c r="C22">
-        <v>0.07500141651216309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04424416930897208</v>
+      </c>
+      <c r="D22">
+        <v>0.1043903172099658</v>
+      </c>
+      <c r="E22">
+        <v>0.613520569316467</v>
+      </c>
+      <c r="F22">
+        <v>-0.1311216053485854</v>
+      </c>
+      <c r="G22">
+        <v>0.01000898171399123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06944174108423332</v>
+        <v>0.06660523682651236</v>
       </c>
       <c r="C23">
-        <v>0.07456160766781622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04370032479964253</v>
+      </c>
+      <c r="D23">
+        <v>0.1055172970271158</v>
+      </c>
+      <c r="E23">
+        <v>0.6127433730084877</v>
+      </c>
+      <c r="F23">
+        <v>-0.1308855139071821</v>
+      </c>
+      <c r="G23">
+        <v>0.01172322783963663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06421980771299206</v>
+        <v>0.07324657524538347</v>
       </c>
       <c r="C24">
-        <v>0.05487340638127145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03465518628778787</v>
+      </c>
+      <c r="D24">
+        <v>0.06546550062353082</v>
+      </c>
+      <c r="E24">
+        <v>0.006777611458260734</v>
+      </c>
+      <c r="F24">
+        <v>0.04453049170142348</v>
+      </c>
+      <c r="G24">
+        <v>-0.0151971016748575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0636789919161089</v>
+        <v>0.07080706388943038</v>
       </c>
       <c r="C25">
-        <v>0.05967352250571283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03938353098226351</v>
+      </c>
+      <c r="D25">
+        <v>0.06369357579608757</v>
+      </c>
+      <c r="E25">
+        <v>0.007730894044085657</v>
+      </c>
+      <c r="F25">
+        <v>0.03803193807523556</v>
+      </c>
+      <c r="G25">
+        <v>-0.01113498303929633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03829903238056999</v>
+        <v>0.03973847166601749</v>
       </c>
       <c r="C26">
-        <v>0.01411996266727518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005654243954367379</v>
+      </c>
+      <c r="D26">
+        <v>0.02108545299288216</v>
+      </c>
+      <c r="E26">
+        <v>0.03801070724523501</v>
+      </c>
+      <c r="F26">
+        <v>0.02136513876575704</v>
+      </c>
+      <c r="G26">
+        <v>-0.01586192231978236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04948649195363822</v>
+        <v>0.07296684062176642</v>
       </c>
       <c r="C28">
-        <v>0.07348616970748954</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07556842235030849</v>
+      </c>
+      <c r="D28">
+        <v>-0.3253216282468224</v>
+      </c>
+      <c r="E28">
+        <v>0.04049161177579831</v>
+      </c>
+      <c r="F28">
+        <v>0.05346170109552364</v>
+      </c>
+      <c r="G28">
+        <v>0.02617344320101177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03446142969285557</v>
+        <v>0.04146833693258525</v>
       </c>
       <c r="C29">
-        <v>0.03280426811162262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02546655656732764</v>
+      </c>
+      <c r="D29">
+        <v>0.01050757708214125</v>
+      </c>
+      <c r="E29">
+        <v>0.0371766659490145</v>
+      </c>
+      <c r="F29">
+        <v>0.01132238379893797</v>
+      </c>
+      <c r="G29">
+        <v>-0.005669366620238283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1135196433572559</v>
+        <v>0.1275109261630412</v>
       </c>
       <c r="C30">
-        <v>0.1002904866716628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06633707272669082</v>
+      </c>
+      <c r="D30">
+        <v>0.1013926065315888</v>
+      </c>
+      <c r="E30">
+        <v>0.03245585832340001</v>
+      </c>
+      <c r="F30">
+        <v>0.01881596522481404</v>
+      </c>
+      <c r="G30">
+        <v>0.002634921111267445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03770923759435989</v>
+        <v>0.04268122776306715</v>
       </c>
       <c r="C31">
-        <v>0.02656370794550599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01645152011520637</v>
+      </c>
+      <c r="D31">
+        <v>0.02980494108319737</v>
+      </c>
+      <c r="E31">
+        <v>0.02094486322844667</v>
+      </c>
+      <c r="F31">
+        <v>0.01413103400523094</v>
+      </c>
+      <c r="G31">
+        <v>-0.01940076329309063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03124631825408299</v>
+        <v>0.03203584025553041</v>
       </c>
       <c r="C32">
-        <v>0.02668996343053934</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01707295666994219</v>
+      </c>
+      <c r="D32">
+        <v>0.01735502415016934</v>
+      </c>
+      <c r="E32">
+        <v>0.05935195603609004</v>
+      </c>
+      <c r="F32">
+        <v>-0.01298260670984848</v>
+      </c>
+      <c r="G32">
+        <v>0.007986445933831717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07441304116031867</v>
+        <v>0.08762759343570482</v>
       </c>
       <c r="C33">
-        <v>0.05396488442680406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03503465993112613</v>
+      </c>
+      <c r="D33">
+        <v>0.06473064909957446</v>
+      </c>
+      <c r="E33">
+        <v>0.01143565419886524</v>
+      </c>
+      <c r="F33">
+        <v>0.006582167747710684</v>
+      </c>
+      <c r="G33">
+        <v>-0.02666119432358651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04980216770564618</v>
+        <v>0.05606371023134646</v>
       </c>
       <c r="C34">
-        <v>0.0342856766869343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01961120067159884</v>
+      </c>
+      <c r="D34">
+        <v>0.0583589240886425</v>
+      </c>
+      <c r="E34">
+        <v>0.003712304997951595</v>
+      </c>
+      <c r="F34">
+        <v>0.02703335088806138</v>
+      </c>
+      <c r="G34">
+        <v>-0.01034514954056499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03628315722238402</v>
+        <v>0.03879298720488289</v>
       </c>
       <c r="C35">
-        <v>0.0143075311632969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006275461639512928</v>
+      </c>
+      <c r="D35">
+        <v>0.01084086111056992</v>
+      </c>
+      <c r="E35">
+        <v>0.03116355798648836</v>
+      </c>
+      <c r="F35">
+        <v>-0.004654200814571952</v>
+      </c>
+      <c r="G35">
+        <v>-0.009541321749093636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01870765113538871</v>
+        <v>0.02291031240382986</v>
       </c>
       <c r="C36">
-        <v>0.01647867364721514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01127867758939541</v>
+      </c>
+      <c r="D36">
+        <v>0.01949353023560102</v>
+      </c>
+      <c r="E36">
+        <v>0.03452115114194326</v>
+      </c>
+      <c r="F36">
+        <v>0.02090782145699466</v>
+      </c>
+      <c r="G36">
+        <v>-0.01739390512074165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03696801154468198</v>
+        <v>0.04002548998912128</v>
       </c>
       <c r="C38">
-        <v>0.01325351264954558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.004090539945900013</v>
+      </c>
+      <c r="D38">
+        <v>0.01128535216882339</v>
+      </c>
+      <c r="E38">
+        <v>0.06014326370131577</v>
+      </c>
+      <c r="F38">
+        <v>-0.01867908520219534</v>
+      </c>
+      <c r="G38">
+        <v>0.02184607878131745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0857336395148269</v>
+        <v>0.09939020528286469</v>
       </c>
       <c r="C39">
-        <v>0.0834905527029469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05640005546189181</v>
+      </c>
+      <c r="D39">
+        <v>0.08588072336641119</v>
+      </c>
+      <c r="E39">
+        <v>-0.01841305285766813</v>
+      </c>
+      <c r="F39">
+        <v>0.0224594631743464</v>
+      </c>
+      <c r="G39">
+        <v>0.007728268360799096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06508970256373335</v>
+        <v>0.07205867841609868</v>
       </c>
       <c r="C40">
-        <v>0.05740848799400036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03788305979130073</v>
+      </c>
+      <c r="D40">
+        <v>0.01174912726975771</v>
+      </c>
+      <c r="E40">
+        <v>0.02327701843721692</v>
+      </c>
+      <c r="F40">
+        <v>-0.04306967289811699</v>
+      </c>
+      <c r="G40">
+        <v>0.04906616414374369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03860659888606029</v>
+        <v>0.04273534366916866</v>
       </c>
       <c r="C41">
-        <v>0.01807383170999555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008888464805089804</v>
+      </c>
+      <c r="D41">
+        <v>0.04198893759037057</v>
+      </c>
+      <c r="E41">
+        <v>0.008717413257635691</v>
+      </c>
+      <c r="F41">
+        <v>-0.008516751866626246</v>
+      </c>
+      <c r="G41">
+        <v>0.00255991347882879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04039962580918089</v>
+        <v>0.04936779268696823</v>
       </c>
       <c r="C43">
-        <v>0.03840566038818184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02495360812109399</v>
+      </c>
+      <c r="D43">
+        <v>0.02852636773956694</v>
+      </c>
+      <c r="E43">
+        <v>0.0172425437567105</v>
+      </c>
+      <c r="F43">
+        <v>0.01303526560247882</v>
+      </c>
+      <c r="G43">
+        <v>-0.01374313987263485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08721857753999089</v>
+        <v>0.09106090779077458</v>
       </c>
       <c r="C44">
-        <v>0.09661998972038398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06441747154175577</v>
+      </c>
+      <c r="D44">
+        <v>0.06035434883030055</v>
+      </c>
+      <c r="E44">
+        <v>0.09750344728141594</v>
+      </c>
+      <c r="F44">
+        <v>0.06727938350588793</v>
+      </c>
+      <c r="G44">
+        <v>-0.002380354015030096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02641267486555868</v>
+        <v>0.02750224491613982</v>
       </c>
       <c r="C46">
-        <v>0.01976500898531974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01172359396724311</v>
+      </c>
+      <c r="D46">
+        <v>0.03320651310521085</v>
+      </c>
+      <c r="E46">
+        <v>0.01634618820053768</v>
+      </c>
+      <c r="F46">
+        <v>0.01842201881273493</v>
+      </c>
+      <c r="G46">
+        <v>0.008050372027553055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02970603363903984</v>
+        <v>0.0324151508991319</v>
       </c>
       <c r="C47">
-        <v>0.02242918999264552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01330105432574005</v>
+      </c>
+      <c r="D47">
+        <v>0.01789160960713005</v>
+      </c>
+      <c r="E47">
+        <v>0.05032980279991683</v>
+      </c>
+      <c r="F47">
+        <v>0.01478727765606057</v>
+      </c>
+      <c r="G47">
+        <v>-0.02587487434427918</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02720902082534462</v>
+        <v>0.03118916984287533</v>
       </c>
       <c r="C48">
-        <v>0.01978393908717706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01192995911721877</v>
+      </c>
+      <c r="D48">
+        <v>0.03022868126759898</v>
+      </c>
+      <c r="E48">
+        <v>0.04368255372159391</v>
+      </c>
+      <c r="F48">
+        <v>0.01887478410978477</v>
+      </c>
+      <c r="G48">
+        <v>-0.007691928296186751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1516709952743797</v>
+        <v>0.1760068190223614</v>
       </c>
       <c r="C49">
-        <v>0.09710159407496231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05940073427228197</v>
+      </c>
+      <c r="D49">
+        <v>0.007772837100951645</v>
+      </c>
+      <c r="E49">
+        <v>-0.1304905231744358</v>
+      </c>
+      <c r="F49">
+        <v>0.01511590368645173</v>
+      </c>
+      <c r="G49">
+        <v>-0.07320792649771821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03255451648649912</v>
+        <v>0.04025719446012475</v>
       </c>
       <c r="C50">
-        <v>0.02790006294347066</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02253382955667158</v>
+      </c>
+      <c r="D50">
+        <v>0.0382621032752506</v>
+      </c>
+      <c r="E50">
+        <v>0.04272606744506607</v>
+      </c>
+      <c r="F50">
+        <v>0.02854838773643222</v>
+      </c>
+      <c r="G50">
+        <v>-0.02099888682728776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02368011148272588</v>
+        <v>0.02559035940473295</v>
       </c>
       <c r="C51">
-        <v>0.0184265308632687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01120890466313241</v>
+      </c>
+      <c r="D51">
+        <v>0.02605295211507573</v>
+      </c>
+      <c r="E51">
+        <v>0.01397971970160873</v>
+      </c>
+      <c r="F51">
+        <v>0.006660359124026974</v>
+      </c>
+      <c r="G51">
+        <v>0.009226648670372534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1384943819258846</v>
+        <v>0.1586798808059179</v>
       </c>
       <c r="C53">
-        <v>0.1060385265679915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07152229534938397</v>
+      </c>
+      <c r="D53">
+        <v>0.02317762675732771</v>
+      </c>
+      <c r="E53">
+        <v>-0.03798779207366196</v>
+      </c>
+      <c r="F53">
+        <v>0.02450233688739847</v>
+      </c>
+      <c r="G53">
+        <v>-0.01633704116901707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05200603076516081</v>
+        <v>0.056175176687814</v>
       </c>
       <c r="C54">
-        <v>0.02831320997981065</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01413480873083893</v>
+      </c>
+      <c r="D54">
+        <v>0.03699741893935241</v>
+      </c>
+      <c r="E54">
+        <v>0.04226149285367056</v>
+      </c>
+      <c r="F54">
+        <v>0.01399800434287436</v>
+      </c>
+      <c r="G54">
+        <v>-0.009564255598747424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09273123616431732</v>
+        <v>0.1004256271582895</v>
       </c>
       <c r="C55">
-        <v>0.06736251850915972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04463578216304041</v>
+      </c>
+      <c r="D55">
+        <v>0.03246288994180075</v>
+      </c>
+      <c r="E55">
+        <v>0.006390973343000627</v>
+      </c>
+      <c r="F55">
+        <v>0.02769681723773139</v>
+      </c>
+      <c r="G55">
+        <v>-0.005262506900873098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1341680469101288</v>
+        <v>0.1567428506095363</v>
       </c>
       <c r="C56">
-        <v>0.1140401681333948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07954984086823112</v>
+      </c>
+      <c r="D56">
+        <v>0.01750660586325642</v>
+      </c>
+      <c r="E56">
+        <v>-0.03750258600487372</v>
+      </c>
+      <c r="F56">
+        <v>0.055104522862277</v>
+      </c>
+      <c r="G56">
+        <v>-0.02918923495351403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1131193222918439</v>
+        <v>0.1038431407626122</v>
       </c>
       <c r="C58">
-        <v>0.0354242806716985</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0002317823984500333</v>
+      </c>
+      <c r="D58">
+        <v>0.05882531612851587</v>
+      </c>
+      <c r="E58">
+        <v>0.1855277313543679</v>
+      </c>
+      <c r="F58">
+        <v>0.04077054278299599</v>
+      </c>
+      <c r="G58">
+        <v>-0.04099537815425922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1020081512865181</v>
+        <v>0.1446469380621158</v>
       </c>
       <c r="C59">
-        <v>0.08969779650197808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08725610154083241</v>
+      </c>
+      <c r="D59">
+        <v>-0.3509405086975066</v>
+      </c>
+      <c r="E59">
+        <v>0.0493853449663712</v>
+      </c>
+      <c r="F59">
+        <v>-0.0244670388263658</v>
+      </c>
+      <c r="G59">
+        <v>-0.01907010545023644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1792274105112633</v>
+        <v>0.2127444403116033</v>
       </c>
       <c r="C60">
-        <v>0.1233802753743665</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08330577890530641</v>
+      </c>
+      <c r="D60">
+        <v>0.01310981983516842</v>
+      </c>
+      <c r="E60">
+        <v>-0.07141174316288706</v>
+      </c>
+      <c r="F60">
+        <v>0.03535198773625702</v>
+      </c>
+      <c r="G60">
+        <v>0.02655628512406663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07485968147501128</v>
+        <v>0.08414098854409692</v>
       </c>
       <c r="C61">
-        <v>0.06094168390761184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04006368776489833</v>
+      </c>
+      <c r="D61">
+        <v>0.06139083325220383</v>
+      </c>
+      <c r="E61">
+        <v>-0.01696290075208509</v>
+      </c>
+      <c r="F61">
+        <v>0.01009970262016264</v>
+      </c>
+      <c r="G61">
+        <v>-0.02997817673098778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1121455875548545</v>
+        <v>0.1354907663867708</v>
       </c>
       <c r="C62">
-        <v>0.08359063608737209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.06025584081265611</v>
+      </c>
+      <c r="D62">
+        <v>0.02920432812631959</v>
+      </c>
+      <c r="E62">
+        <v>-0.05827035153262034</v>
+      </c>
+      <c r="F62">
+        <v>0.02207653428626694</v>
+      </c>
+      <c r="G62">
+        <v>0.02723388443486538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04801657687539751</v>
+        <v>0.05073100932487009</v>
       </c>
       <c r="C63">
-        <v>0.02994794078086921</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01810008795200861</v>
+      </c>
+      <c r="D63">
+        <v>0.03099078248717771</v>
+      </c>
+      <c r="E63">
+        <v>0.04946674815211816</v>
+      </c>
+      <c r="F63">
+        <v>0.01718838020203919</v>
+      </c>
+      <c r="G63">
+        <v>0.02592003931441466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1047585682602987</v>
+        <v>0.110613026042238</v>
       </c>
       <c r="C64">
-        <v>0.05048130062066183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02598979843630906</v>
+      </c>
+      <c r="D64">
+        <v>0.04681691195672978</v>
+      </c>
+      <c r="E64">
+        <v>0.02845414745872829</v>
+      </c>
+      <c r="F64">
+        <v>0.05423910391197077</v>
+      </c>
+      <c r="G64">
+        <v>0.01665207112564635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1052805848554204</v>
+        <v>0.1207217288872164</v>
       </c>
       <c r="C65">
-        <v>0.07050414343431968</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04625271644444481</v>
+      </c>
+      <c r="D65">
+        <v>0.01391220396627138</v>
+      </c>
+      <c r="E65">
+        <v>-0.0007054795374440675</v>
+      </c>
+      <c r="F65">
+        <v>0.05529108101823831</v>
+      </c>
+      <c r="G65">
+        <v>0.03492847521596729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1331773893578829</v>
+        <v>0.1517504975361744</v>
       </c>
       <c r="C66">
-        <v>0.09477393801874891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05941875043563252</v>
+      </c>
+      <c r="D66">
+        <v>0.1197319865063876</v>
+      </c>
+      <c r="E66">
+        <v>-0.0607195589270483</v>
+      </c>
+      <c r="F66">
+        <v>0.04398510111982631</v>
+      </c>
+      <c r="G66">
+        <v>-0.007989066876684291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06874538401923161</v>
+        <v>0.07448807599184672</v>
       </c>
       <c r="C67">
-        <v>0.02733231639608916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.01054261206268244</v>
+      </c>
+      <c r="D67">
+        <v>0.02441723678385663</v>
+      </c>
+      <c r="E67">
+        <v>0.02668585042396109</v>
+      </c>
+      <c r="F67">
+        <v>-0.0007696486390369512</v>
+      </c>
+      <c r="G67">
+        <v>-0.001337065164624075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05084911984790263</v>
+        <v>0.0678535545278361</v>
       </c>
       <c r="C68">
-        <v>0.0495052477079842</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04935384573996923</v>
+      </c>
+      <c r="D68">
+        <v>-0.2658900902126932</v>
+      </c>
+      <c r="E68">
+        <v>0.04978614178466773</v>
+      </c>
+      <c r="F68">
+        <v>0.01283924975601986</v>
+      </c>
+      <c r="G68">
+        <v>-0.003947818562623116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.048248383244263</v>
+        <v>0.05122071389451312</v>
       </c>
       <c r="C69">
-        <v>0.0304845259182357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01380348750584613</v>
+      </c>
+      <c r="D69">
+        <v>0.03527751867296019</v>
+      </c>
+      <c r="E69">
+        <v>0.01651020988974876</v>
+      </c>
+      <c r="F69">
+        <v>0.00372944401960434</v>
+      </c>
+      <c r="G69">
+        <v>-0.009020634280635004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.003963627533638043</v>
+        <v>0.01381868187819194</v>
       </c>
       <c r="C70">
-        <v>-0.0017760503030246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0007174536309793204</v>
+      </c>
+      <c r="D70">
+        <v>-0.006407297549123996</v>
+      </c>
+      <c r="E70">
+        <v>-0.02438272206676077</v>
+      </c>
+      <c r="F70">
+        <v>0.01019883692482717</v>
+      </c>
+      <c r="G70">
+        <v>-0.008887194802796291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05322857059192811</v>
+        <v>0.07083333443830961</v>
       </c>
       <c r="C71">
-        <v>0.04797381764566011</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04769309878184455</v>
+      </c>
+      <c r="D71">
+        <v>-0.3001549684592573</v>
+      </c>
+      <c r="E71">
+        <v>0.04717896710282001</v>
+      </c>
+      <c r="F71">
+        <v>0.03392771713314886</v>
+      </c>
+      <c r="G71">
+        <v>-0.004255676795156303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1271931177968737</v>
+        <v>0.1497429691098242</v>
       </c>
       <c r="C72">
-        <v>0.08192839695503329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05406835274516195</v>
+      </c>
+      <c r="D72">
+        <v>0.01287375641643216</v>
+      </c>
+      <c r="E72">
+        <v>-0.09688194650589757</v>
+      </c>
+      <c r="F72">
+        <v>-0.1559779557628875</v>
+      </c>
+      <c r="G72">
+        <v>0.1200617481244776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2396553949119265</v>
+        <v>0.2670893442128034</v>
       </c>
       <c r="C73">
-        <v>0.1474156851881221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.09088124011062682</v>
+      </c>
+      <c r="D73">
+        <v>0.06111349583938967</v>
+      </c>
+      <c r="E73">
+        <v>-0.1848225880536425</v>
+      </c>
+      <c r="F73">
+        <v>0.06357985897907875</v>
+      </c>
+      <c r="G73">
+        <v>-0.1673554541995451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07474005244688102</v>
+        <v>0.0887295513909129</v>
       </c>
       <c r="C74">
-        <v>0.08481060249171356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06430462407594829</v>
+      </c>
+      <c r="D74">
+        <v>0.03469133608858434</v>
+      </c>
+      <c r="E74">
+        <v>-0.003419441261968376</v>
+      </c>
+      <c r="F74">
+        <v>-0.002502624611053108</v>
+      </c>
+      <c r="G74">
+        <v>-0.03100231580683024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09363018044882995</v>
+        <v>0.106282995636648</v>
       </c>
       <c r="C75">
-        <v>0.07322008230790472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04374770956537553</v>
+      </c>
+      <c r="D75">
+        <v>0.01909406554946023</v>
+      </c>
+      <c r="E75">
+        <v>0.00120135167155155</v>
+      </c>
+      <c r="F75">
+        <v>0.0669768349223042</v>
+      </c>
+      <c r="G75">
+        <v>-0.01137958803836842</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1148487050986322</v>
+        <v>0.1311973982426828</v>
       </c>
       <c r="C76">
-        <v>0.1030935587127633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.07033663219619841</v>
+      </c>
+      <c r="D76">
+        <v>0.05789001112564294</v>
+      </c>
+      <c r="E76">
+        <v>0.007092678853155811</v>
+      </c>
+      <c r="F76">
+        <v>0.0680258338224166</v>
+      </c>
+      <c r="G76">
+        <v>-0.01024718169120883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09660934124354492</v>
+        <v>0.1049436634317504</v>
       </c>
       <c r="C77">
-        <v>0.0744139595780392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03990749114539045</v>
+      </c>
+      <c r="D77">
+        <v>0.03827877222279461</v>
+      </c>
+      <c r="E77">
+        <v>-0.03925229674630097</v>
+      </c>
+      <c r="F77">
+        <v>0.2707588588134766</v>
+      </c>
+      <c r="G77">
+        <v>0.8889736038449915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08200262137050818</v>
+        <v>0.101582510972735</v>
       </c>
       <c r="C78">
-        <v>0.04956736095587264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.0343420926195559</v>
+      </c>
+      <c r="D78">
+        <v>0.07485941844219995</v>
+      </c>
+      <c r="E78">
+        <v>0.05064515593208058</v>
+      </c>
+      <c r="F78">
+        <v>-0.0002804045210611341</v>
+      </c>
+      <c r="G78">
+        <v>0.02244113718234092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1336048249187834</v>
+        <v>0.150314259764471</v>
       </c>
       <c r="C79">
-        <v>0.1058237683362889</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06676139528741053</v>
+      </c>
+      <c r="D79">
+        <v>0.02967962962992652</v>
+      </c>
+      <c r="E79">
+        <v>-0.02675815948086619</v>
+      </c>
+      <c r="F79">
+        <v>0.0388213875419814</v>
+      </c>
+      <c r="G79">
+        <v>-0.01538697285064256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04258917032615968</v>
+        <v>0.04117323439923687</v>
       </c>
       <c r="C80">
-        <v>0.02011229168294212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007536130029391085</v>
+      </c>
+      <c r="D80">
+        <v>0.02783232712175352</v>
+      </c>
+      <c r="E80">
+        <v>0.001962059388708235</v>
+      </c>
+      <c r="F80">
+        <v>-0.02276615679600402</v>
+      </c>
+      <c r="G80">
+        <v>-0.04582833077177139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1081472726735941</v>
+        <v>0.1212098275826442</v>
       </c>
       <c r="C81">
-        <v>0.08698879785738364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05566370076043123</v>
+      </c>
+      <c r="D81">
+        <v>0.03640290097960549</v>
+      </c>
+      <c r="E81">
+        <v>-0.007897121028909979</v>
+      </c>
+      <c r="F81">
+        <v>0.03842472688784966</v>
+      </c>
+      <c r="G81">
+        <v>-0.053828859804316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1128460661390227</v>
+        <v>0.1251005084601185</v>
       </c>
       <c r="C82">
-        <v>0.09676973404753081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06189109396323723</v>
+      </c>
+      <c r="D82">
+        <v>0.03666400946578278</v>
+      </c>
+      <c r="E82">
+        <v>-0.02922612973914062</v>
+      </c>
+      <c r="F82">
+        <v>0.05352051551447985</v>
+      </c>
+      <c r="G82">
+        <v>-0.06005237064971683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07177252543168838</v>
+        <v>0.07211641834203057</v>
       </c>
       <c r="C83">
-        <v>0.01994007835967732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.00268514945243054</v>
+      </c>
+      <c r="D83">
+        <v>0.04213974719292941</v>
+      </c>
+      <c r="E83">
+        <v>0.005587988883149886</v>
+      </c>
+      <c r="F83">
+        <v>0.008420226214604819</v>
+      </c>
+      <c r="G83">
+        <v>-0.0610705700641177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02414716714201589</v>
+        <v>0.03203907947298378</v>
       </c>
       <c r="C84">
-        <v>0.02244567949394524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02058862808823795</v>
+      </c>
+      <c r="D84">
+        <v>0.01635668609748718</v>
+      </c>
+      <c r="E84">
+        <v>0.01947153316112217</v>
+      </c>
+      <c r="F84">
+        <v>-0.03769858960295031</v>
+      </c>
+      <c r="G84">
+        <v>-0.04119167737273634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1171996357619198</v>
+        <v>0.1205037136538236</v>
       </c>
       <c r="C85">
-        <v>0.08730672648100299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04927303396355626</v>
+      </c>
+      <c r="D85">
+        <v>0.03345537414449487</v>
+      </c>
+      <c r="E85">
+        <v>0.00878773974601617</v>
+      </c>
+      <c r="F85">
+        <v>0.08693782467576135</v>
+      </c>
+      <c r="G85">
+        <v>-0.00479058750730085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04277202285364561</v>
+        <v>0.04618550106751518</v>
       </c>
       <c r="C86">
-        <v>0.02656690751664001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01191285762547476</v>
+      </c>
+      <c r="D86">
+        <v>0.01461639617261187</v>
+      </c>
+      <c r="E86">
+        <v>0.0484774465442184</v>
+      </c>
+      <c r="F86">
+        <v>0.01319334418229469</v>
+      </c>
+      <c r="G86">
+        <v>-0.005287698921459759</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1133156384049355</v>
+        <v>0.1197174816327039</v>
       </c>
       <c r="C87">
-        <v>0.08596237194966803</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.05018362384129219</v>
+      </c>
+      <c r="D87">
+        <v>0.07195871718112795</v>
+      </c>
+      <c r="E87">
+        <v>0.0158318393139614</v>
+      </c>
+      <c r="F87">
+        <v>0.03038481041163041</v>
+      </c>
+      <c r="G87">
+        <v>0.09475314391136354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05203240544151363</v>
+        <v>0.056855897588229</v>
       </c>
       <c r="C88">
-        <v>0.04388567565906494</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02682219401540418</v>
+      </c>
+      <c r="D88">
+        <v>0.02685107721237117</v>
+      </c>
+      <c r="E88">
+        <v>0.02018734437871643</v>
+      </c>
+      <c r="F88">
+        <v>0.009664601987338576</v>
+      </c>
+      <c r="G88">
+        <v>0.009214925370782097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07045511886582331</v>
+        <v>0.1041742690451934</v>
       </c>
       <c r="C89">
-        <v>0.08005924854150892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07916684593534608</v>
+      </c>
+      <c r="D89">
+        <v>-0.3289967704652552</v>
+      </c>
+      <c r="E89">
+        <v>0.08205783060509519</v>
+      </c>
+      <c r="F89">
+        <v>0.05841239110451949</v>
+      </c>
+      <c r="G89">
+        <v>-0.01336858654065388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06349575821754469</v>
+        <v>0.08677401967098336</v>
       </c>
       <c r="C90">
-        <v>0.06896755380771814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06679307133036455</v>
+      </c>
+      <c r="D90">
+        <v>-0.3100140546535126</v>
+      </c>
+      <c r="E90">
+        <v>0.06827253527743234</v>
+      </c>
+      <c r="F90">
+        <v>-0.01654119838641061</v>
+      </c>
+      <c r="G90">
+        <v>-0.01242249603781933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07736838982917847</v>
+        <v>0.08732534751201644</v>
       </c>
       <c r="C91">
-        <v>0.06651543330805589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04355315977393853</v>
+      </c>
+      <c r="D91">
+        <v>0.03001006408229186</v>
+      </c>
+      <c r="E91">
+        <v>0.008885629251207604</v>
+      </c>
+      <c r="F91">
+        <v>0.01185643705069354</v>
+      </c>
+      <c r="G91">
+        <v>-0.03170489380287249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07922310313474007</v>
+        <v>0.1025167109881751</v>
       </c>
       <c r="C92">
-        <v>0.07072752910290084</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06659589913302977</v>
+      </c>
+      <c r="D92">
+        <v>-0.3275391017984183</v>
+      </c>
+      <c r="E92">
+        <v>0.04372795007387107</v>
+      </c>
+      <c r="F92">
+        <v>0.02281831816708625</v>
+      </c>
+      <c r="G92">
+        <v>0.01300656792412894</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05677857987430309</v>
+        <v>0.08351969120523567</v>
       </c>
       <c r="C93">
-        <v>0.06587992243714187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06680527618073133</v>
+      </c>
+      <c r="D93">
+        <v>-0.300256717932042</v>
+      </c>
+      <c r="E93">
+        <v>0.0389130945254313</v>
+      </c>
+      <c r="F93">
+        <v>0.03621202688901127</v>
+      </c>
+      <c r="G93">
+        <v>0.01333573562524349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1220020198645416</v>
+        <v>0.1265040387009988</v>
       </c>
       <c r="C94">
-        <v>0.0797978581046318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03845684698988429</v>
+      </c>
+      <c r="D94">
+        <v>0.05853693079049955</v>
+      </c>
+      <c r="E94">
+        <v>-0.03128980198533732</v>
+      </c>
+      <c r="F94">
+        <v>0.04674528502964715</v>
+      </c>
+      <c r="G94">
+        <v>-0.03085121250492932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1133576290563436</v>
+        <v>0.1205341069637117</v>
       </c>
       <c r="C95">
-        <v>0.05971355487946845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02889443885796472</v>
+      </c>
+      <c r="D95">
+        <v>0.05344640739740255</v>
+      </c>
+      <c r="E95">
+        <v>-0.01283685073960174</v>
+      </c>
+      <c r="F95">
+        <v>0.04141971789359105</v>
+      </c>
+      <c r="G95">
+        <v>0.0006694075171879337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1889455710103161</v>
+        <v>0.2218181092321954</v>
       </c>
       <c r="C97">
-        <v>0.08235924426523072</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04536101279726686</v>
+      </c>
+      <c r="D97">
+        <v>-0.009621111101094511</v>
+      </c>
+      <c r="E97">
+        <v>-0.1687498954583762</v>
+      </c>
+      <c r="F97">
+        <v>-0.8815519662361719</v>
+      </c>
+      <c r="G97">
+        <v>0.2155571884007611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2309062690680313</v>
+        <v>0.2580620646609704</v>
       </c>
       <c r="C98">
-        <v>0.1275473573112458</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06720765463611128</v>
+      </c>
+      <c r="D98">
+        <v>0.03842365549876472</v>
+      </c>
+      <c r="E98">
+        <v>-0.1399412521865467</v>
+      </c>
+      <c r="F98">
+        <v>0.01423795252963638</v>
+      </c>
+      <c r="G98">
+        <v>-0.2530921815031525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5845998365292565</v>
+        <v>0.3832555489657082</v>
       </c>
       <c r="C99">
-        <v>-0.8017290185202238</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9132065792305022</v>
+      </c>
+      <c r="D99">
+        <v>-0.07195364222346015</v>
+      </c>
+      <c r="E99">
+        <v>0.04088201256063834</v>
+      </c>
+      <c r="F99">
+        <v>0.04068857648944681</v>
+      </c>
+      <c r="G99">
+        <v>0.0003136041065557835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03468263009907162</v>
+        <v>0.04163728610974643</v>
       </c>
       <c r="C101">
-        <v>0.03296974715724104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02553542975638324</v>
+      </c>
+      <c r="D101">
+        <v>0.0111978815723689</v>
+      </c>
+      <c r="E101">
+        <v>0.03634679941032576</v>
+      </c>
+      <c r="F101">
+        <v>0.01074363140465928</v>
+      </c>
+      <c r="G101">
+        <v>-0.006201662164133286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
